--- a/2021-04-14.xlsx
+++ b/2021-04-14.xlsx
@@ -5,31 +5,31 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-04-14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projekte\Abt3_IQM-COVID19\Fachlich\Auswertungen\2021-04-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CDBC37-2E19-4CCF-A5CD-0FBFC9FC249F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48215B42-BC6B-4878-A9A0-256A98A8A08E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28515" windowHeight="12600" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_13.04.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_13.04.21" sheetId="11" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_14.04.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_14.04.21" sheetId="11" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_13.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001" localSheetId="2">Impfstoff_bis_einschl_13.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_13.04.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="2">Impfstoff_bis_einschl_13.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_14.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="2">Impfstoff_bis_einschl_14.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_14.04.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="2">Impfstoff_bis_einschl_14.04.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
   <si>
     <t>Bayern</t>
   </si>
@@ -232,18 +232,6 @@
     <t>Die Daten der niedergelassenen Ärzteschaft beziehen sich auf den Zeitraum ab dem 10.03.2021.</t>
   </si>
   <si>
-    <t>Datenstand: 14.04.2021, 8:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 13.04.21 (Impfquote_bis_einschl_13.04.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.04.21 durchgeführt und bis zum 14.04.21, 8:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 13.04.21 (Impfstoff_bis_einschl_13.04.21)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -259,19 +247,22 @@
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
   </si>
   <si>
-    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.083 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
-  </si>
-  <si>
-    <t>Hessen*</t>
-  </si>
-  <si>
-    <t>Impfzentren Bund**</t>
-  </si>
-  <si>
-    <t>** Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Die Impfungen gehen in die Gesamtzahl der Impfungen für Gesamtdeutschland mit ein.</t>
-  </si>
-  <si>
-    <t>* Aus Hessen konnten aufgrund eines Softwarefehlers keine Daten der Impfzentren, Mobilen Teams und Krankenhäuser für den Impftag 13.4.2021 gemeldet werden.</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;60 vs. 60+ Jahre) für Impfungen in Impfzentren und bei der niedergelassenen Ärzteschaft bis einschließlich 14.04.21 (Impfquote_bis_einschl_14.04.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff bis einschließlich 14.04.21 (Impfstoff_bis_einschl_14.04.21)</t>
+  </si>
+  <si>
+    <t>* Impfungen, die in den bundeseigenen Impfzentren aus dem Impfkontingent des Bundes durchgeführt wurden. Dies sind Impfungen, die Angehörigen des Bundes gemäß §§ 2, 3 und 4 Coronavirus-Impfverordnung verabreicht wurden. Die Impfungen gehen in die Gesamtzahl der Impfungen für Gesamtdeutschland mit ein.</t>
+  </si>
+  <si>
+    <t>In den Gesamtsummen der Zweitimpfung und der täglichen Gesamtzahlen sind n=2.081 Impfungen enthalten, die entsprechend den vorliegenden Meldedaten nicht plausibel einem Impfdatum zugewiesen werden können.</t>
+  </si>
+  <si>
+    <t>Datenstand: 15.04.2021, 11:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 13.04.21 durchgeführt und bis zum 14.04.21, 11:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten. </t>
   </si>
 </sst>
 </file>
@@ -283,7 +274,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +384,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -583,7 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -725,10 +730,35 @@
     </xf>
     <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -737,24 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1127,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1147,7 +1161,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -1159,12 +1173,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1196,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1267,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,55 +1437,55 @@
         <v>1</v>
       </c>
       <c r="C5" s="18">
-        <v>2478303</v>
+        <v>2559741</v>
       </c>
       <c r="D5" s="18">
-        <v>1796409</v>
+        <v>1867730</v>
       </c>
       <c r="E5" s="18">
-        <v>681894</v>
+        <v>692011</v>
       </c>
       <c r="F5" s="19">
-        <v>16.183290430952272</v>
+        <v>16.825799156318237</v>
       </c>
       <c r="G5" s="19">
-        <v>8.7219470314512613</v>
+        <v>8.9836034709769095</v>
       </c>
       <c r="H5" s="19">
-        <v>36.241592972542627</v>
+        <v>37.919815253142332</v>
       </c>
       <c r="I5" s="19">
-        <v>6.1429711413847112</v>
+        <v>6.2341120504371288</v>
       </c>
       <c r="J5" s="19">
-        <v>2.1717016268879714</v>
+        <v>2.2001639726830482</v>
       </c>
       <c r="K5" s="19">
-        <v>16.942321559250612</v>
+        <v>17.203914478181268</v>
       </c>
       <c r="L5" s="18">
-        <v>668713</v>
+        <v>678729</v>
       </c>
       <c r="M5" s="18">
-        <v>971753</v>
+        <v>988906</v>
       </c>
       <c r="N5" s="18">
-        <v>174712</v>
+        <v>176913</v>
       </c>
       <c r="O5" s="18">
-        <v>502212</v>
+        <v>509676</v>
       </c>
       <c r="P5" s="20">
-        <v>39159</v>
+        <v>50379</v>
       </c>
       <c r="Q5" s="20">
-        <v>109844</v>
+        <v>142776</v>
       </c>
       <c r="R5" s="20">
-        <v>1543</v>
+        <v>1652</v>
       </c>
       <c r="S5" s="20">
-        <v>3416</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1482,55 +1496,55 @@
         <v>0</v>
       </c>
       <c r="C6" s="23">
-        <v>3109931</v>
+        <v>3232545</v>
       </c>
       <c r="D6" s="23">
-        <v>2242087</v>
+        <v>2359534</v>
       </c>
       <c r="E6" s="23">
-        <v>867844</v>
+        <v>873011</v>
       </c>
       <c r="F6" s="24">
-        <v>17.0829099280237</v>
+        <v>17.977762144871932</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6" s="24">
-        <v>6.6122772593462251</v>
+        <v>6.6516456672617519</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P6" s="27">
-        <v>54259</v>
+        <v>70600</v>
       </c>
       <c r="Q6" s="28">
-        <v>158674</v>
+        <v>198384</v>
       </c>
       <c r="R6" s="27">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="S6" s="28">
-        <v>208</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1541,55 +1555,55 @@
         <v>3</v>
       </c>
       <c r="C7" s="31">
-        <v>900520</v>
+        <v>928394</v>
       </c>
       <c r="D7" s="31">
-        <v>627046</v>
+        <v>650222</v>
       </c>
       <c r="E7" s="31">
-        <v>273474</v>
+        <v>278172</v>
       </c>
       <c r="F7" s="32">
-        <v>17.088092054184081</v>
+        <v>17.719678287806129</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" s="32">
-        <v>7.4526412518793483</v>
+        <v>7.5806699076247899</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L7" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N7" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P7" s="35">
-        <v>25927</v>
+        <v>32930</v>
       </c>
       <c r="Q7" s="35">
-        <v>26277</v>
+        <v>32663</v>
       </c>
       <c r="R7" s="35">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="S7" s="35">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1600,55 +1614,55 @@
         <v>2</v>
       </c>
       <c r="C8" s="23">
-        <v>573876</v>
+        <v>598407</v>
       </c>
       <c r="D8" s="23">
-        <v>429252</v>
+        <v>448840</v>
       </c>
       <c r="E8" s="23">
-        <v>144624</v>
+        <v>149567</v>
       </c>
       <c r="F8" s="24">
-        <v>17.021023493066519</v>
+        <v>17.797741617110638</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I8" s="24">
-        <v>5.7347397371736237</v>
+        <v>5.9307432948186145</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P8" s="27">
-        <v>14699</v>
+        <v>17136</v>
       </c>
       <c r="Q8" s="28">
-        <v>35949</v>
+        <v>45131</v>
       </c>
       <c r="R8" s="27">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="S8" s="28">
-        <v>2051</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1659,55 +1673,55 @@
         <v>4</v>
       </c>
       <c r="C9" s="31">
-        <v>180934</v>
+        <v>186920</v>
       </c>
       <c r="D9" s="31">
-        <v>137138</v>
+        <v>142270</v>
       </c>
       <c r="E9" s="31">
-        <v>43796</v>
+        <v>44650</v>
       </c>
       <c r="F9" s="32">
-        <v>20.131767082304513</v>
+        <v>20.88514126499922</v>
       </c>
       <c r="G9" s="32">
-        <v>9.9054964768246165</v>
+        <v>10.134381666558925</v>
       </c>
       <c r="H9" s="32">
-        <v>47.31892542187181</v>
+        <v>49.466685285240125</v>
       </c>
       <c r="I9" s="32">
-        <v>6.4292236370415825</v>
+        <v>6.5545902683785418</v>
       </c>
       <c r="J9" s="32">
-        <v>2.3959208740060767</v>
+        <v>2.4136983644708772</v>
       </c>
       <c r="K9" s="32">
-        <v>17.152002749820081</v>
+        <v>17.563401613370999</v>
       </c>
       <c r="L9" s="31">
-        <v>46287</v>
+        <v>46608</v>
       </c>
       <c r="M9" s="31">
-        <v>82537</v>
+        <v>84773</v>
       </c>
       <c r="N9" s="31">
-        <v>11856</v>
+        <v>11943</v>
       </c>
       <c r="O9" s="31">
-        <v>31933</v>
+        <v>32697</v>
       </c>
       <c r="P9" s="36">
-        <v>2746</v>
+        <v>3558</v>
       </c>
       <c r="Q9" s="36">
-        <v>5568</v>
+        <v>7331</v>
       </c>
       <c r="R9" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" s="36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1718,55 +1732,55 @@
         <v>5</v>
       </c>
       <c r="C10" s="23">
-        <v>416754</v>
+        <v>431399</v>
       </c>
       <c r="D10" s="23">
-        <v>310429</v>
+        <v>324626</v>
       </c>
       <c r="E10" s="23">
-        <v>106325</v>
+        <v>106773</v>
       </c>
       <c r="F10" s="24">
-        <v>16.804898949954339</v>
+        <v>17.573445543193056</v>
       </c>
       <c r="G10" s="24">
-        <v>10.365379852092991</v>
+        <v>10.538268284915608</v>
       </c>
       <c r="H10" s="24">
-        <v>37.522771606829068</v>
+        <v>40.229800346842374</v>
       </c>
       <c r="I10" s="24">
-        <v>5.7558439477429459</v>
+        <v>5.7800961752396667</v>
       </c>
       <c r="J10" s="24">
-        <v>2.355755281129472</v>
+        <v>2.3641060118184067</v>
       </c>
       <c r="K10" s="24">
-        <v>16.820933987098201</v>
+        <v>16.89693530445437</v>
       </c>
       <c r="L10" s="23">
-        <v>140108</v>
+        <v>140945</v>
       </c>
       <c r="M10" s="23">
-        <v>148694</v>
+        <v>155994</v>
       </c>
       <c r="N10" s="23">
-        <v>33274</v>
+        <v>33386</v>
       </c>
       <c r="O10" s="23">
-        <v>73018</v>
+        <v>73334</v>
       </c>
       <c r="P10" s="28">
-        <v>6360</v>
+        <v>7966</v>
       </c>
       <c r="Q10" s="28">
-        <v>14231</v>
+        <v>18685</v>
       </c>
       <c r="R10" s="28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S10" s="28">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1777,55 +1791,55 @@
         <v>15</v>
       </c>
       <c r="C11" s="31">
-        <v>1371811</v>
+        <v>1446230</v>
       </c>
       <c r="D11" s="31">
-        <v>954150</v>
+        <v>1016983</v>
       </c>
       <c r="E11" s="31">
-        <v>417661</v>
+        <v>429247</v>
       </c>
       <c r="F11" s="32">
-        <v>15.173948168598365</v>
+        <v>16.17318800015267</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="32">
-        <v>6.6421069706492277</v>
+        <v>6.8263603516494697</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P11" s="35">
-        <v>25345</v>
+        <v>32238</v>
       </c>
       <c r="Q11" s="35">
-        <v>56545</v>
+        <v>73236</v>
       </c>
       <c r="R11" s="35">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="S11" s="35">
-        <v>129</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1836,55 +1850,55 @@
         <v>6</v>
       </c>
       <c r="C12" s="23">
-        <v>347607</v>
+        <v>368770</v>
       </c>
       <c r="D12" s="23">
-        <v>253119</v>
+        <v>271858</v>
       </c>
       <c r="E12" s="23">
-        <v>94488</v>
+        <v>96912</v>
       </c>
       <c r="F12" s="24">
-        <v>15.739880532640854</v>
+        <v>16.905141225442094</v>
       </c>
       <c r="G12" s="24">
-        <v>8.2566484223478529</v>
+        <v>8.7770616768017042</v>
       </c>
       <c r="H12" s="24">
-        <v>30.45066159780021</v>
+        <v>32.884824773469653</v>
       </c>
       <c r="I12" s="24">
-        <v>5.8756151524309486</v>
+        <v>6.0263484850180769</v>
       </c>
       <c r="J12" s="24">
-        <v>2.5501093533708223</v>
+        <v>2.5693352890642878</v>
       </c>
       <c r="K12" s="24">
-        <v>12.419399486961817</v>
+        <v>12.828907302489528</v>
       </c>
       <c r="L12" s="23">
-        <v>78666</v>
+        <v>81246</v>
       </c>
       <c r="M12" s="23">
-        <v>143536</v>
+        <v>148070</v>
       </c>
       <c r="N12" s="23">
-        <v>27154</v>
+        <v>27328</v>
       </c>
       <c r="O12" s="23">
-        <v>67260</v>
+        <v>69449</v>
       </c>
       <c r="P12" s="28">
-        <v>9372</v>
+        <v>12341</v>
       </c>
       <c r="Q12" s="28">
-        <v>21467</v>
+        <v>30123</v>
       </c>
       <c r="R12" s="28">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="S12" s="28">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1895,55 +1909,55 @@
         <v>7</v>
       </c>
       <c r="C13" s="31">
-        <v>1775687</v>
+        <v>1852083</v>
       </c>
       <c r="D13" s="31">
-        <v>1293937</v>
+        <v>1363771</v>
       </c>
       <c r="E13" s="31">
-        <v>481750</v>
+        <v>488312</v>
       </c>
       <c r="F13" s="32">
-        <v>16.187146029677713</v>
+        <v>17.060769054474527</v>
       </c>
       <c r="G13" s="32">
-        <v>8.2082609474020884</v>
+        <v>8.5682645173362726</v>
       </c>
       <c r="H13" s="32">
-        <v>35.780392082257634</v>
+        <v>37.915567544710356</v>
       </c>
       <c r="I13" s="32">
-        <v>6.0266903255701303</v>
+        <v>6.1087809159518454</v>
       </c>
       <c r="J13" s="32">
-        <v>1.7520490594860529</v>
+        <v>1.7558689594750858</v>
       </c>
       <c r="K13" s="32">
-        <v>16.5260669716032</v>
+        <v>16.800406082415879</v>
       </c>
       <c r="L13" s="31">
-        <v>434071</v>
+        <v>444471</v>
       </c>
       <c r="M13" s="31">
-        <v>749813</v>
+        <v>773134</v>
       </c>
       <c r="N13" s="31">
-        <v>99459</v>
+        <v>99633</v>
       </c>
       <c r="O13" s="31">
-        <v>382055</v>
+        <v>388359</v>
       </c>
       <c r="P13" s="36">
-        <v>32222</v>
+        <v>42273</v>
       </c>
       <c r="Q13" s="36">
-        <v>77727</v>
+        <v>103789</v>
       </c>
       <c r="R13" s="36">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="S13" s="36">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1954,55 +1968,55 @@
         <v>8</v>
       </c>
       <c r="C14" s="23">
-        <v>4200273</v>
+        <v>4395698</v>
       </c>
       <c r="D14" s="23">
-        <v>3124564</v>
+        <v>3297414</v>
       </c>
       <c r="E14" s="23">
-        <v>1075709</v>
+        <v>1098284</v>
       </c>
       <c r="F14" s="24">
-        <v>17.409737139805657</v>
+        <v>18.372838892439113</v>
       </c>
       <c r="G14" s="24">
-        <v>9.8684824263430571</v>
+        <v>10.269048590383658</v>
       </c>
       <c r="H14" s="24">
-        <v>36.832134712509308</v>
+        <v>39.244039120083016</v>
       </c>
       <c r="I14" s="24">
-        <v>5.993735743266325</v>
+        <v>6.1195212339559424</v>
       </c>
       <c r="J14" s="24">
-        <v>2.5960143573854038</v>
+        <v>2.627071694567217</v>
       </c>
       <c r="K14" s="24">
-        <v>14.744520341490889</v>
+        <v>15.114276885892853</v>
       </c>
       <c r="L14" s="23">
-        <v>1197968</v>
+        <v>1222742</v>
       </c>
       <c r="M14" s="23">
-        <v>1634059</v>
+        <v>1690125</v>
       </c>
       <c r="N14" s="23">
-        <v>335234</v>
+        <v>339107</v>
       </c>
       <c r="O14" s="23">
-        <v>739697</v>
+        <v>758051</v>
       </c>
       <c r="P14" s="28">
-        <v>77800</v>
+        <v>104810</v>
       </c>
       <c r="Q14" s="28">
-        <v>214737</v>
+        <v>279737</v>
       </c>
       <c r="R14" s="28">
-        <v>371</v>
+        <v>513</v>
       </c>
       <c r="S14" s="28">
-        <v>407</v>
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2013,55 +2027,55 @@
         <v>12</v>
       </c>
       <c r="C15" s="31">
-        <v>922486</v>
+        <v>962971</v>
       </c>
       <c r="D15" s="31">
-        <v>703158</v>
+        <v>735818</v>
       </c>
       <c r="E15" s="31">
-        <v>219328</v>
+        <v>227153</v>
       </c>
       <c r="F15" s="32">
-        <v>17.175736699184128</v>
+        <v>17.973508409945229</v>
       </c>
       <c r="G15" s="32">
-        <v>9.3078174096961064</v>
+        <v>9.5867640805597443</v>
       </c>
       <c r="H15" s="32">
-        <v>36.191128846917245</v>
+        <v>38.245158055282786</v>
       </c>
       <c r="I15" s="32">
-        <v>5.3574303055055283</v>
+        <v>5.5485682000770415</v>
       </c>
       <c r="J15" s="32">
-        <v>1.9259814560174064</v>
+        <v>1.9797551399082187</v>
       </c>
       <c r="K15" s="32">
-        <v>13.66617219982032</v>
+        <v>14.189917054927607</v>
       </c>
       <c r="L15" s="31">
-        <v>255057</v>
+        <v>258635</v>
       </c>
       <c r="M15" s="31">
-        <v>393169</v>
+        <v>404352</v>
       </c>
       <c r="N15" s="31">
-        <v>55767</v>
+        <v>57308</v>
       </c>
       <c r="O15" s="31">
-        <v>163452</v>
+        <v>169690</v>
       </c>
       <c r="P15" s="36">
-        <v>14621</v>
+        <v>19125</v>
       </c>
       <c r="Q15" s="36">
-        <v>39885</v>
+        <v>53280</v>
       </c>
       <c r="R15" s="36">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="S15" s="36">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2072,55 +2086,55 @@
         <v>13</v>
       </c>
       <c r="C16" s="23">
-        <v>253895</v>
+        <v>264594</v>
       </c>
       <c r="D16" s="23">
-        <v>190345</v>
+        <v>198864</v>
       </c>
       <c r="E16" s="23">
-        <v>63550</v>
+        <v>65730</v>
       </c>
       <c r="F16" s="24">
-        <v>19.28741588449336</v>
+        <v>20.150635280432308</v>
       </c>
       <c r="G16" s="24">
-        <v>9.4807446151459178</v>
+        <v>9.8413262002727109</v>
       </c>
       <c r="H16" s="24">
-        <v>40.05104538806814</v>
+        <v>41.978514187522308</v>
       </c>
       <c r="I16" s="24">
-        <v>6.439440381725567</v>
+        <v>6.6603369990687886</v>
       </c>
       <c r="J16" s="24">
-        <v>1.4897673599818591</v>
+        <v>1.5588402908522376</v>
       </c>
       <c r="K16" s="24">
-        <v>16.919524545061137</v>
+        <v>17.46188179328513</v>
       </c>
       <c r="L16" s="23">
-        <v>58452</v>
+        <v>59439</v>
       </c>
       <c r="M16" s="23">
-        <v>116693</v>
+        <v>119706</v>
       </c>
       <c r="N16" s="23">
-        <v>9973</v>
+        <v>10433</v>
       </c>
       <c r="O16" s="23">
-        <v>53553</v>
+        <v>55266</v>
       </c>
       <c r="P16" s="28">
-        <v>5098</v>
+        <v>6528</v>
       </c>
       <c r="Q16" s="28">
-        <v>10101</v>
+        <v>13190</v>
       </c>
       <c r="R16" s="28">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S16" s="28">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2131,55 +2145,55 @@
         <v>9</v>
       </c>
       <c r="C17" s="31">
-        <v>957233</v>
+        <v>996158</v>
       </c>
       <c r="D17" s="31">
-        <v>670716</v>
+        <v>707756</v>
       </c>
       <c r="E17" s="31">
-        <v>286517</v>
+        <v>288402</v>
       </c>
       <c r="F17" s="32">
-        <v>16.471531845388878</v>
+        <v>17.381165042678347</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I17" s="32">
-        <v>7.0363222134931709</v>
+        <v>7.0826142917029618</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L17" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N17" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P17" s="35">
-        <v>13037</v>
+        <v>16502</v>
       </c>
       <c r="Q17" s="35">
-        <v>50542</v>
+        <v>65984</v>
       </c>
       <c r="R17" s="35">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="S17" s="35">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2190,55 +2204,55 @@
         <v>10</v>
       </c>
       <c r="C18" s="23">
-        <v>507909</v>
+        <v>530966</v>
       </c>
       <c r="D18" s="23">
-        <v>388823</v>
+        <v>410212</v>
       </c>
       <c r="E18" s="23">
-        <v>119086</v>
+        <v>120754</v>
       </c>
       <c r="F18" s="24">
-        <v>17.71579136333358</v>
+        <v>18.690330064671571</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I18" s="24">
-        <v>5.4258691751618153</v>
+        <v>5.5018676114529823</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N18" s="25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P18" s="27">
-        <v>6902</v>
+        <v>8747</v>
       </c>
       <c r="Q18" s="28">
-        <v>28723</v>
+        <v>37512</v>
       </c>
       <c r="R18" s="27">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="S18" s="28">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2249,55 +2263,55 @@
         <v>11</v>
       </c>
       <c r="C19" s="31">
-        <v>686808</v>
+        <v>712712</v>
       </c>
       <c r="D19" s="31">
-        <v>535836</v>
+        <v>558242</v>
       </c>
       <c r="E19" s="31">
-        <v>150972</v>
+        <v>154470</v>
       </c>
       <c r="F19" s="32">
-        <v>18.453095334931486</v>
+        <v>19.224712124535905</v>
       </c>
       <c r="G19" s="32">
-        <v>10.096020237114404</v>
+        <v>10.440457731161013</v>
       </c>
       <c r="H19" s="32">
-        <v>38.081854970309728</v>
+        <v>39.856813194036803</v>
       </c>
       <c r="I19" s="32">
-        <v>5.1991667392733527</v>
+        <v>5.3196307011601798</v>
       </c>
       <c r="J19" s="32">
-        <v>2.3548427960763094</v>
+        <v>2.3695728385872123</v>
       </c>
       <c r="K19" s="32">
-        <v>11.879799658409054</v>
+        <v>12.2486071692582</v>
       </c>
       <c r="L19" s="31">
-        <v>195816</v>
+        <v>199496</v>
       </c>
       <c r="M19" s="31">
-        <v>297997</v>
+        <v>302509</v>
       </c>
       <c r="N19" s="31">
-        <v>47934</v>
+        <v>48215</v>
       </c>
       <c r="O19" s="31">
-        <v>102919</v>
+        <v>106069</v>
       </c>
       <c r="P19" s="36">
-        <v>9805</v>
+        <v>13140</v>
       </c>
       <c r="Q19" s="36">
-        <v>32218</v>
+        <v>43097</v>
       </c>
       <c r="R19" s="36">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="S19" s="36">
-        <v>93</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2308,55 +2322,55 @@
         <v>14</v>
       </c>
       <c r="C20" s="23">
-        <v>532076</v>
+        <v>552474</v>
       </c>
       <c r="D20" s="23">
-        <v>373011</v>
+        <v>389949</v>
       </c>
       <c r="E20" s="23">
-        <v>159065</v>
+        <v>162525</v>
       </c>
       <c r="F20" s="24">
-        <v>17.484524542767385</v>
+        <v>18.278476669394735</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I20" s="24">
-        <v>7.4560157646699263</v>
+        <v>7.6181998689402439</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P20" s="28">
-        <v>5315</v>
+        <v>6907</v>
       </c>
       <c r="Q20" s="28">
-        <v>21927</v>
+        <v>29189</v>
       </c>
       <c r="R20" s="28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S20" s="28">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2365,55 +2379,55 @@
         <v>50</v>
       </c>
       <c r="C21" s="31">
-        <v>28361</v>
+        <v>29874</v>
       </c>
       <c r="D21" s="31">
-        <v>28309</v>
+        <v>29819</v>
       </c>
       <c r="E21" s="31">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L21" s="35">
-        <v>26519</v>
+        <v>27870</v>
       </c>
       <c r="M21" s="35">
-        <v>1790</v>
+        <v>1949</v>
       </c>
       <c r="N21" s="35">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O21" s="35">
         <v>1</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S21" s="35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,183 +2436,188 @@
         <v>19</v>
       </c>
       <c r="C22" s="40">
-        <v>19244464</v>
+        <v>20049936</v>
       </c>
       <c r="D22" s="40">
-        <v>14058329</v>
+        <v>14773908</v>
       </c>
       <c r="E22" s="40">
-        <v>5186135</v>
+        <v>5276028</v>
       </c>
       <c r="F22" s="41">
-        <v>16.903793393969853</v>
+        <v>17.76420856657419</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I22" s="41">
-        <v>6.2358303432247064</v>
+        <v>6.3439180611579076</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K22" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M22" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N22" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P22" s="52">
-        <v>342667</v>
+        <v>445180</v>
       </c>
       <c r="Q22" s="52">
-        <v>904415</v>
+        <v>1174107</v>
       </c>
       <c r="R22" s="52">
-        <v>3216</v>
+        <v>3780</v>
       </c>
       <c r="S22" s="52">
-        <v>6804</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
       <c r="T25" s="54"/>
     </row>
     <row r="26" spans="1:20" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
       <c r="T26" s="55"/>
     </row>
     <row r="27" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="68"/>
-      <c r="T27" s="68"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
     </row>
     <row r="28" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A25:S25"/>
+    <mergeCell ref="A27:T27"/>
+    <mergeCell ref="A29:T29"/>
+    <mergeCell ref="A28:T28"/>
+    <mergeCell ref="A26:S26"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:K1"/>
@@ -2613,11 +2632,6 @@
     <mergeCell ref="R2:S3"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A25:S25"/>
-    <mergeCell ref="A27:T27"/>
-    <mergeCell ref="A29:T29"/>
-    <mergeCell ref="A28:T28"/>
-    <mergeCell ref="A26:S26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2626,10 +2640,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4549C-7AD6-45E3-9E9E-50890FFA92FE}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,40 +2660,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="76" t="s">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="78"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="81"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="83"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="73" t="s">
         <v>51</v>
       </c>
@@ -2687,13 +2701,13 @@
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
       <c r="G2" s="73"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="73" t="s">
         <v>51</v>
       </c>
@@ -2701,17 +2715,17 @@
       <c r="O2" s="73"/>
       <c r="P2" s="73"/>
       <c r="Q2" s="73"/>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="81"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="83"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="73" t="s">
         <v>20</v>
       </c>
@@ -2721,12 +2735,12 @@
       <c r="G3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
       <c r="L3" s="73" t="s">
         <v>17</v>
       </c>
@@ -2739,19 +2753,19 @@
       <c r="Q3" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="81"/>
       <c r="V3" s="73" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
-      <c r="B4" s="84"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="87"/>
       <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
@@ -2813,64 +2827,64 @@
         <v>1</v>
       </c>
       <c r="C5" s="45">
-        <v>1640466</v>
+        <v>1667635</v>
       </c>
       <c r="D5" s="45">
-        <v>1013844</v>
+        <v>1029067</v>
       </c>
       <c r="E5" s="45">
-        <v>86417</v>
+        <v>88168</v>
       </c>
       <c r="F5" s="45">
-        <v>540205</v>
+        <v>550400</v>
       </c>
       <c r="G5" s="45">
-        <v>34591</v>
+        <v>26739</v>
       </c>
       <c r="H5" s="45">
-        <v>676924</v>
+        <v>686589</v>
       </c>
       <c r="I5" s="45">
-        <v>640775</v>
+        <v>650176</v>
       </c>
       <c r="J5" s="45">
-        <v>35989</v>
+        <v>36247</v>
       </c>
       <c r="K5" s="45">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L5" s="45">
-        <v>10798</v>
+        <v>9666</v>
       </c>
       <c r="M5" s="45">
-        <v>155943</v>
+        <v>200095</v>
       </c>
       <c r="N5" s="45">
-        <v>153110</v>
+        <v>197201</v>
       </c>
       <c r="O5" s="45">
         <v>32</v>
       </c>
       <c r="P5" s="45">
-        <v>2801</v>
+        <v>2862</v>
       </c>
       <c r="Q5" s="45">
-        <v>22226</v>
+        <v>44152</v>
       </c>
       <c r="R5" s="45">
-        <v>4970</v>
+        <v>5422</v>
       </c>
       <c r="S5" s="45">
-        <v>4968</v>
+        <v>5415</v>
       </c>
       <c r="T5" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U5" s="45">
         <v>2</v>
       </c>
       <c r="V5" s="45">
-        <v>706</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -2881,64 +2895,64 @@
         <v>0</v>
       </c>
       <c r="C6" s="47">
-        <v>2028806</v>
+        <v>2090202</v>
       </c>
       <c r="D6" s="47">
-        <v>1384042</v>
+        <v>1421180</v>
       </c>
       <c r="E6" s="47">
-        <v>116819</v>
+        <v>120756</v>
       </c>
       <c r="F6" s="47">
-        <v>527945</v>
+        <v>548266</v>
       </c>
       <c r="G6" s="47">
-        <v>56572</v>
+        <v>61396</v>
       </c>
       <c r="H6" s="47">
-        <v>867466</v>
+        <v>872474</v>
       </c>
       <c r="I6" s="47">
-        <v>817861</v>
+        <v>821414</v>
       </c>
       <c r="J6" s="47">
-        <v>49441</v>
+        <v>50855</v>
       </c>
       <c r="K6" s="47">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="L6" s="47">
-        <v>6163</v>
+        <v>5008</v>
       </c>
       <c r="M6" s="47">
-        <v>213281</v>
+        <v>269332</v>
       </c>
       <c r="N6" s="47">
-        <v>177868</v>
+        <v>232304</v>
       </c>
       <c r="O6" s="47">
         <v>98</v>
       </c>
       <c r="P6" s="47">
-        <v>35315</v>
+        <v>36930</v>
       </c>
       <c r="Q6" s="47">
-        <v>28994</v>
+        <v>56051</v>
       </c>
       <c r="R6" s="47">
-        <v>378</v>
+        <v>537</v>
       </c>
       <c r="S6" s="47">
-        <v>360</v>
+        <v>517</v>
       </c>
       <c r="T6" s="47">
         <v>0</v>
       </c>
       <c r="U6" s="47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V6" s="47">
-        <v>62</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2949,64 +2963,64 @@
         <v>3</v>
       </c>
       <c r="C7" s="45">
-        <v>573132</v>
+        <v>582919</v>
       </c>
       <c r="D7" s="45">
-        <v>351873</v>
+        <v>359309</v>
       </c>
       <c r="E7" s="45">
-        <v>50799</v>
+        <v>50833</v>
       </c>
       <c r="F7" s="45">
-        <v>170460</v>
+        <v>172777</v>
       </c>
       <c r="G7" s="45">
-        <v>10784</v>
+        <v>9787</v>
       </c>
       <c r="H7" s="45">
-        <v>273372</v>
+        <v>278028</v>
       </c>
       <c r="I7" s="45">
-        <v>253793</v>
+        <v>256794</v>
       </c>
       <c r="J7" s="45">
-        <v>19579</v>
+        <v>21234</v>
       </c>
       <c r="K7" s="45">
         <v>0</v>
       </c>
       <c r="L7" s="45">
-        <v>3902</v>
+        <v>4656</v>
       </c>
       <c r="M7" s="45">
-        <v>53914</v>
+        <v>67303</v>
       </c>
       <c r="N7" s="45">
-        <v>40333</v>
+        <v>53125</v>
       </c>
       <c r="O7" s="45">
         <v>7</v>
       </c>
       <c r="P7" s="45">
-        <v>13574</v>
+        <v>14171</v>
       </c>
       <c r="Q7" s="45">
-        <v>7655</v>
+        <v>13389</v>
       </c>
       <c r="R7" s="45">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="S7" s="45">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="T7" s="45">
         <v>0</v>
       </c>
       <c r="U7" s="45">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V7" s="45">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -3017,64 +3031,64 @@
         <v>2</v>
       </c>
       <c r="C8" s="47">
-        <v>371218</v>
+        <v>379187</v>
       </c>
       <c r="D8" s="47">
-        <v>230405</v>
+        <v>235091</v>
       </c>
       <c r="E8" s="47">
-        <v>39888</v>
+        <v>43171</v>
       </c>
       <c r="F8" s="47">
         <v>100925</v>
       </c>
       <c r="G8" s="47">
-        <v>6429</v>
+        <v>6839</v>
       </c>
       <c r="H8" s="47">
-        <v>141668</v>
+        <v>146444</v>
       </c>
       <c r="I8" s="47">
-        <v>133093</v>
+        <v>137039</v>
       </c>
       <c r="J8" s="47">
-        <v>8571</v>
+        <v>9401</v>
       </c>
       <c r="K8" s="47">
         <v>4</v>
       </c>
       <c r="L8" s="47">
-        <v>4779</v>
+        <v>4611</v>
       </c>
       <c r="M8" s="47">
-        <v>58034</v>
+        <v>69653</v>
       </c>
       <c r="N8" s="47">
-        <v>48300</v>
+        <v>57725</v>
       </c>
       <c r="O8" s="47">
         <v>0</v>
       </c>
       <c r="P8" s="47">
-        <v>9734</v>
+        <v>11928</v>
       </c>
       <c r="Q8" s="47">
-        <v>7474</v>
+        <v>11619</v>
       </c>
       <c r="R8" s="47">
-        <v>2956</v>
+        <v>3123</v>
       </c>
       <c r="S8" s="47">
-        <v>2951</v>
+        <v>3111</v>
       </c>
       <c r="T8" s="47">
         <v>0</v>
       </c>
       <c r="U8" s="47">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="V8" s="47">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3085,40 +3099,40 @@
         <v>4</v>
       </c>
       <c r="C9" s="45">
-        <v>128824</v>
+        <v>131381</v>
       </c>
       <c r="D9" s="45">
-        <v>85717</v>
+        <v>87397</v>
       </c>
       <c r="E9" s="45">
-        <v>7950</v>
+        <v>8069</v>
       </c>
       <c r="F9" s="45">
-        <v>35157</v>
+        <v>35915</v>
       </c>
       <c r="G9" s="45">
-        <v>2301</v>
+        <v>2558</v>
       </c>
       <c r="H9" s="45">
-        <v>43789</v>
+        <v>44640</v>
       </c>
       <c r="I9" s="45">
-        <v>40744</v>
+        <v>41592</v>
       </c>
       <c r="J9" s="45">
         <v>3041</v>
       </c>
       <c r="K9" s="45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L9" s="45">
-        <v>1044</v>
+        <v>851</v>
       </c>
       <c r="M9" s="45">
-        <v>8314</v>
+        <v>10889</v>
       </c>
       <c r="N9" s="45">
-        <v>8314</v>
+        <v>10889</v>
       </c>
       <c r="O9" s="45">
         <v>0</v>
@@ -3127,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="45">
-        <v>1215</v>
+        <v>2575</v>
       </c>
       <c r="R9" s="45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S9" s="45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T9" s="45">
         <v>0</v>
@@ -3142,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3153,64 +3167,64 @@
         <v>5</v>
       </c>
       <c r="C10" s="47">
-        <v>288802</v>
+        <v>296939</v>
       </c>
       <c r="D10" s="47">
-        <v>198231</v>
+        <v>199242</v>
       </c>
       <c r="E10" s="47">
-        <v>14298</v>
+        <v>14605</v>
       </c>
       <c r="F10" s="47">
-        <v>76273</v>
+        <v>83092</v>
       </c>
       <c r="G10" s="47">
-        <v>8162</v>
+        <v>7018</v>
       </c>
       <c r="H10" s="47">
-        <v>106292</v>
+        <v>106720</v>
       </c>
       <c r="I10" s="47">
-        <v>99478</v>
+        <v>99905</v>
       </c>
       <c r="J10" s="47">
-        <v>6761</v>
+        <v>6762</v>
       </c>
       <c r="K10" s="47">
         <v>53</v>
       </c>
       <c r="L10" s="47">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" s="47">
-        <v>21627</v>
+        <v>27687</v>
       </c>
       <c r="N10" s="47">
-        <v>17647</v>
+        <v>23592</v>
       </c>
       <c r="O10" s="47">
         <v>18</v>
       </c>
       <c r="P10" s="47">
-        <v>3962</v>
+        <v>4077</v>
       </c>
       <c r="Q10" s="47">
-        <v>3283</v>
+        <v>6060</v>
       </c>
       <c r="R10" s="47">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="S10" s="47">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="T10" s="47">
         <v>0</v>
       </c>
       <c r="U10" s="47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" s="47">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3218,58 +3232,58 @@
         <v>29</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C11" s="45">
-        <v>871910</v>
+        <v>911159</v>
       </c>
       <c r="D11" s="45">
-        <v>555645</v>
+        <v>574491</v>
       </c>
       <c r="E11" s="45">
-        <v>41462</v>
+        <v>45556</v>
       </c>
       <c r="F11" s="45">
-        <v>274803</v>
+        <v>291112</v>
       </c>
       <c r="G11" s="45">
-        <v>0</v>
+        <v>19558</v>
       </c>
       <c r="H11" s="45">
-        <v>417471</v>
+        <v>429009</v>
       </c>
       <c r="I11" s="45">
-        <v>400092</v>
+        <v>410986</v>
       </c>
       <c r="J11" s="45">
-        <v>17262</v>
+        <v>17901</v>
       </c>
       <c r="K11" s="45">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L11" s="45">
-        <v>0</v>
+        <v>5933</v>
       </c>
       <c r="M11" s="45">
-        <v>82240</v>
+        <v>105824</v>
       </c>
       <c r="N11" s="45">
-        <v>78288</v>
+        <v>101582</v>
       </c>
       <c r="O11" s="45">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="P11" s="45">
-        <v>3936</v>
+        <v>4208</v>
       </c>
       <c r="Q11" s="45">
-        <v>12158</v>
+        <v>23584</v>
       </c>
       <c r="R11" s="45">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="S11" s="45">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="T11" s="45">
         <v>0</v>
@@ -3278,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="V11" s="45">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -3289,64 +3303,64 @@
         <v>6</v>
       </c>
       <c r="C12" s="47">
-        <v>222202</v>
+        <v>229316</v>
       </c>
       <c r="D12" s="47">
-        <v>157138</v>
+        <v>162274</v>
       </c>
       <c r="E12" s="47">
-        <v>17283</v>
+        <v>17855</v>
       </c>
       <c r="F12" s="47">
-        <v>47781</v>
+        <v>49187</v>
       </c>
       <c r="G12" s="47">
-        <v>7416</v>
+        <v>6974</v>
       </c>
       <c r="H12" s="47">
-        <v>94414</v>
+        <v>96777</v>
       </c>
       <c r="I12" s="47">
-        <v>88187</v>
+        <v>90283</v>
       </c>
       <c r="J12" s="47">
-        <v>6131</v>
+        <v>6396</v>
       </c>
       <c r="K12" s="47">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L12" s="47">
-        <v>2107</v>
+        <v>2374</v>
       </c>
       <c r="M12" s="47">
-        <v>30917</v>
+        <v>42542</v>
       </c>
       <c r="N12" s="47">
-        <v>25011</v>
+        <v>34964</v>
       </c>
       <c r="O12" s="47">
         <v>13</v>
       </c>
       <c r="P12" s="47">
-        <v>5893</v>
+        <v>7565</v>
       </c>
       <c r="Q12" s="47">
-        <v>4865</v>
+        <v>11625</v>
       </c>
       <c r="R12" s="47">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="S12" s="47">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="T12" s="47">
         <v>0</v>
       </c>
       <c r="U12" s="47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V12" s="47">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -3357,55 +3371,55 @@
         <v>7</v>
       </c>
       <c r="C13" s="45">
-        <v>1183884</v>
+        <v>1217605</v>
       </c>
       <c r="D13" s="45">
-        <v>742291</v>
+        <v>758368</v>
       </c>
       <c r="E13" s="45">
-        <v>82218</v>
+        <v>86739</v>
       </c>
       <c r="F13" s="45">
-        <v>359375</v>
+        <v>372498</v>
       </c>
       <c r="G13" s="45">
-        <v>31151</v>
+        <v>31548</v>
       </c>
       <c r="H13" s="45">
-        <v>481514</v>
+        <v>487992</v>
       </c>
       <c r="I13" s="45">
-        <v>461154</v>
+        <v>467375</v>
       </c>
       <c r="J13" s="45">
-        <v>19898</v>
+        <v>20146</v>
       </c>
       <c r="K13" s="45">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L13" s="45">
-        <v>5995</v>
+        <v>6248</v>
       </c>
       <c r="M13" s="45">
-        <v>110053</v>
+        <v>146166</v>
       </c>
       <c r="N13" s="45">
-        <v>109627</v>
+        <v>145659</v>
       </c>
       <c r="O13" s="45">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="P13" s="45">
-        <v>369</v>
+        <v>429</v>
       </c>
       <c r="Q13" s="45">
-        <v>17575</v>
+        <v>36113</v>
       </c>
       <c r="R13" s="45">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="S13" s="45">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="T13" s="45">
         <v>11</v>
@@ -3414,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="45">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -3425,64 +3439,64 @@
         <v>8</v>
       </c>
       <c r="C14" s="47">
-        <v>2832027</v>
+        <v>2912867</v>
       </c>
       <c r="D14" s="47">
-        <v>1709997</v>
+        <v>1754209</v>
       </c>
       <c r="E14" s="47">
-        <v>131344</v>
+        <v>134592</v>
       </c>
       <c r="F14" s="47">
-        <v>990686</v>
+        <v>1024066</v>
       </c>
       <c r="G14" s="47">
-        <v>54374</v>
+        <v>55305</v>
       </c>
       <c r="H14" s="47">
-        <v>1074931</v>
+        <v>1097158</v>
       </c>
       <c r="I14" s="47">
-        <v>1039390</v>
+        <v>1060448</v>
       </c>
       <c r="J14" s="47">
-        <v>34142</v>
+        <v>34996</v>
       </c>
       <c r="K14" s="47">
-        <v>1399</v>
+        <v>1714</v>
       </c>
       <c r="L14" s="47">
-        <v>11566</v>
+        <v>15502</v>
       </c>
       <c r="M14" s="47">
-        <v>292537</v>
+        <v>384547</v>
       </c>
       <c r="N14" s="47">
-        <v>248613</v>
+        <v>332296</v>
       </c>
       <c r="O14" s="47">
-        <v>681</v>
+        <v>794</v>
       </c>
       <c r="P14" s="47">
-        <v>43243</v>
+        <v>51457</v>
       </c>
       <c r="Q14" s="47">
-        <v>49576</v>
+        <v>92010</v>
       </c>
       <c r="R14" s="47">
-        <v>778</v>
+        <v>1126</v>
       </c>
       <c r="S14" s="47">
-        <v>663</v>
+        <v>955</v>
       </c>
       <c r="T14" s="47">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="U14" s="47">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="V14" s="47">
-        <v>97</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -3493,64 +3507,64 @@
         <v>12</v>
       </c>
       <c r="C15" s="45">
-        <v>648226</v>
+        <v>662987</v>
       </c>
       <c r="D15" s="45">
-        <v>423014</v>
+        <v>434382</v>
       </c>
       <c r="E15" s="45">
-        <v>37410</v>
+        <v>37718</v>
       </c>
       <c r="F15" s="45">
-        <v>187802</v>
+        <v>190887</v>
       </c>
       <c r="G15" s="45">
-        <v>13631</v>
+        <v>12823</v>
       </c>
       <c r="H15" s="45">
-        <v>219219</v>
+        <v>226998</v>
       </c>
       <c r="I15" s="45">
-        <v>214144</v>
+        <v>221532</v>
       </c>
       <c r="J15" s="45">
-        <v>4951</v>
+        <v>5318</v>
       </c>
       <c r="K15" s="45">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="L15" s="45">
-        <v>6238</v>
+        <v>7333</v>
       </c>
       <c r="M15" s="45">
-        <v>54932</v>
+        <v>72831</v>
       </c>
       <c r="N15" s="45">
-        <v>54927</v>
+        <v>72798</v>
       </c>
       <c r="O15" s="45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P15" s="45">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="45">
-        <v>10078</v>
+        <v>17899</v>
       </c>
       <c r="R15" s="45">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="S15" s="45">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="T15" s="45">
         <v>0</v>
       </c>
       <c r="U15" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="45">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -3561,55 +3575,55 @@
         <v>13</v>
       </c>
       <c r="C16" s="47">
-        <v>175145</v>
+        <v>179145</v>
       </c>
       <c r="D16" s="47">
-        <v>120777</v>
+        <v>124726</v>
       </c>
       <c r="E16" s="47">
-        <v>14959</v>
+        <v>14967</v>
       </c>
       <c r="F16" s="47">
-        <v>39409</v>
+        <v>39452</v>
       </c>
       <c r="G16" s="47">
-        <v>3512</v>
+        <v>3479</v>
       </c>
       <c r="H16" s="47">
-        <v>63526</v>
+        <v>65699</v>
       </c>
       <c r="I16" s="47">
-        <v>59756</v>
+        <v>61683</v>
       </c>
       <c r="J16" s="47">
-        <v>3760</v>
+        <v>4006</v>
       </c>
       <c r="K16" s="47">
         <v>10</v>
       </c>
       <c r="L16" s="47">
-        <v>1873</v>
+        <v>2140</v>
       </c>
       <c r="M16" s="47">
-        <v>15200</v>
+        <v>19719</v>
       </c>
       <c r="N16" s="47">
-        <v>14929</v>
+        <v>19436</v>
       </c>
       <c r="O16" s="47">
         <v>54</v>
       </c>
       <c r="P16" s="47">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="47">
-        <v>2677</v>
+        <v>4519</v>
       </c>
       <c r="R16" s="47">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S16" s="47">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T16" s="47">
         <v>0</v>
@@ -3618,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="47">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -3629,64 +3643,64 @@
         <v>9</v>
       </c>
       <c r="C17" s="45">
-        <v>603199</v>
+        <v>621332</v>
       </c>
       <c r="D17" s="45">
-        <v>408051</v>
+        <v>416448</v>
       </c>
       <c r="E17" s="45">
-        <v>38139</v>
+        <v>40085</v>
       </c>
       <c r="F17" s="45">
-        <v>157009</v>
+        <v>164799</v>
       </c>
       <c r="G17" s="45">
-        <v>15280</v>
+        <v>18133</v>
       </c>
       <c r="H17" s="45">
-        <v>286393</v>
+        <v>288227</v>
       </c>
       <c r="I17" s="45">
-        <v>268129</v>
+        <v>269206</v>
       </c>
       <c r="J17" s="45">
-        <v>18264</v>
+        <v>19021</v>
       </c>
       <c r="K17" s="45">
         <v>0</v>
       </c>
       <c r="L17" s="45">
-        <v>1209</v>
+        <v>1834</v>
       </c>
       <c r="M17" s="45">
-        <v>67517</v>
+        <v>86424</v>
       </c>
       <c r="N17" s="45">
-        <v>48028</v>
+        <v>65534</v>
       </c>
       <c r="O17" s="45">
         <v>0</v>
       </c>
       <c r="P17" s="45">
-        <v>19489</v>
+        <v>20890</v>
       </c>
       <c r="Q17" s="45">
-        <v>9826</v>
+        <v>18907</v>
       </c>
       <c r="R17" s="45">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="S17" s="45">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="T17" s="45">
         <v>0</v>
       </c>
       <c r="U17" s="45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="V17" s="45">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -3697,55 +3711,55 @@
         <v>10</v>
       </c>
       <c r="C18" s="49">
-        <v>352715</v>
+        <v>363470</v>
       </c>
       <c r="D18" s="49">
-        <v>214142</v>
+        <v>221497</v>
       </c>
       <c r="E18" s="49">
-        <v>29250</v>
+        <v>29661</v>
       </c>
       <c r="F18" s="49">
-        <v>109323</v>
+        <v>112312</v>
       </c>
       <c r="G18" s="49">
-        <v>9876</v>
+        <v>10755</v>
       </c>
       <c r="H18" s="49">
-        <v>118978</v>
+        <v>120618</v>
       </c>
       <c r="I18" s="49">
-        <v>110978</v>
+        <v>112515</v>
       </c>
       <c r="J18" s="49">
-        <v>7988</v>
+        <v>8034</v>
       </c>
       <c r="K18" s="49">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L18" s="49">
-        <v>2011</v>
+        <v>1640</v>
       </c>
       <c r="M18" s="47">
-        <v>36108</v>
+        <v>46742</v>
       </c>
       <c r="N18" s="47">
-        <v>33376</v>
+        <v>43905</v>
       </c>
       <c r="O18" s="47">
         <v>0</v>
       </c>
       <c r="P18" s="47">
-        <v>2732</v>
+        <v>2837</v>
       </c>
       <c r="Q18" s="47">
-        <v>6341</v>
+        <v>10634</v>
       </c>
       <c r="R18" s="47">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="S18" s="47">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="T18" s="47">
         <v>0</v>
@@ -3754,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="47">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -3765,40 +3779,40 @@
         <v>11</v>
       </c>
       <c r="C19" s="45">
-        <v>493813</v>
+        <v>502005</v>
       </c>
       <c r="D19" s="45">
-        <v>325647</v>
+        <v>330978</v>
       </c>
       <c r="E19" s="45">
-        <v>33400</v>
+        <v>34235</v>
       </c>
       <c r="F19" s="45">
-        <v>134766</v>
+        <v>136792</v>
       </c>
       <c r="G19" s="45">
-        <v>7842</v>
+        <v>8051</v>
       </c>
       <c r="H19" s="45">
-        <v>150853</v>
+        <v>154284</v>
       </c>
       <c r="I19" s="45">
-        <v>144534</v>
+        <v>147775</v>
       </c>
       <c r="J19" s="45">
-        <v>6139</v>
+        <v>6325</v>
       </c>
       <c r="K19" s="45">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" s="45">
-        <v>3743</v>
+        <v>3439</v>
       </c>
       <c r="M19" s="45">
-        <v>42023</v>
+        <v>56237</v>
       </c>
       <c r="N19" s="45">
-        <v>41761</v>
+        <v>55975</v>
       </c>
       <c r="O19" s="45">
         <v>1</v>
@@ -3807,13 +3821,13 @@
         <v>261</v>
       </c>
       <c r="Q19" s="45">
-        <v>5781</v>
+        <v>14214</v>
       </c>
       <c r="R19" s="45">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="S19" s="45">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="T19" s="45">
         <v>0</v>
@@ -3822,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="45">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -3833,40 +3847,40 @@
         <v>14</v>
       </c>
       <c r="C20" s="49">
-        <v>345769</v>
+        <v>353853</v>
       </c>
       <c r="D20" s="49">
-        <v>241020</v>
+        <v>248377</v>
       </c>
       <c r="E20" s="49">
-        <v>20012</v>
+        <v>20739</v>
       </c>
       <c r="F20" s="49">
         <v>84737</v>
       </c>
       <c r="G20" s="49">
-        <v>6562</v>
+        <v>8050</v>
       </c>
       <c r="H20" s="49">
-        <v>159039</v>
+        <v>162490</v>
       </c>
       <c r="I20" s="49">
-        <v>150166</v>
+        <v>153618</v>
       </c>
       <c r="J20" s="49">
-        <v>8860</v>
+        <v>8859</v>
       </c>
       <c r="K20" s="49">
         <v>13</v>
       </c>
       <c r="L20" s="49">
-        <v>3211</v>
+        <v>2955</v>
       </c>
       <c r="M20" s="49">
-        <v>27242</v>
+        <v>36096</v>
       </c>
       <c r="N20" s="47">
-        <v>27179</v>
+        <v>36033</v>
       </c>
       <c r="O20" s="47">
         <v>36</v>
@@ -3875,13 +3889,13 @@
         <v>27</v>
       </c>
       <c r="Q20" s="47">
-        <v>5212</v>
+        <v>8854</v>
       </c>
       <c r="R20" s="47">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S20" s="47">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="T20" s="47">
         <v>0</v>
@@ -3896,31 +3910,31 @@
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="44" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C21" s="45">
-        <v>28309</v>
+        <v>29819</v>
       </c>
       <c r="D21" s="45">
-        <v>354</v>
+        <v>539</v>
       </c>
       <c r="E21" s="45">
-        <v>13457</v>
+        <v>14772</v>
       </c>
       <c r="F21" s="45">
-        <v>14498</v>
+        <v>14508</v>
       </c>
       <c r="G21" s="45">
-        <v>1282</v>
+        <v>1493</v>
       </c>
       <c r="H21" s="45">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
       </c>
       <c r="J21" s="45">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K21" s="45">
         <v>12</v>
@@ -3929,34 +3943,34 @@
         <v>0</v>
       </c>
       <c r="M21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="R21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="T21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V21" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3965,64 +3979,64 @@
         <v>19</v>
       </c>
       <c r="C22" s="38">
-        <v>12788447</v>
+        <v>13131821</v>
       </c>
       <c r="D22" s="38">
-        <v>8162188</v>
+        <v>8357575</v>
       </c>
       <c r="E22" s="38">
-        <v>775105</v>
+        <v>802521</v>
       </c>
       <c r="F22" s="38">
-        <v>3851154</v>
+        <v>3971725</v>
       </c>
       <c r="G22" s="38">
-        <v>269765</v>
+        <v>290506</v>
       </c>
       <c r="H22" s="38">
-        <v>5175901</v>
+        <v>5264202</v>
       </c>
       <c r="I22" s="38">
-        <v>4922275</v>
+        <v>5002342</v>
       </c>
       <c r="J22" s="38">
-        <v>250816</v>
+        <v>258584</v>
       </c>
       <c r="K22" s="38">
-        <v>2810</v>
+        <v>3276</v>
       </c>
       <c r="L22" s="38">
-        <v>64642</v>
+        <v>74198</v>
       </c>
       <c r="M22" s="38">
-        <v>1269882</v>
+        <v>1642087</v>
       </c>
       <c r="N22" s="38">
-        <v>1127311</v>
+        <v>1483018</v>
       </c>
       <c r="O22" s="38">
-        <v>1018</v>
+        <v>1177</v>
       </c>
       <c r="P22" s="38">
-        <v>141553</v>
+        <v>157892</v>
       </c>
       <c r="Q22" s="38">
-        <v>194936</v>
+        <v>372205</v>
       </c>
       <c r="R22" s="38">
-        <v>10234</v>
+        <v>11826</v>
       </c>
       <c r="S22" s="38">
-        <v>10028</v>
+        <v>11539</v>
       </c>
       <c r="T22" s="38">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="U22" s="38">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="V22" s="38">
-        <v>1194</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -4036,38 +4050,42 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
+    <row r="27" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B27:V27"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="M1:V1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -4076,15 +4094,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B28:V28"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -4095,8 +4104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926B42D2-7956-44E7-BD5B-5AF896796AC0}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,16 +4118,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,11 +4159,11 @@
         <v>44194</v>
       </c>
       <c r="B4" s="63">
-        <v>48305</v>
+        <v>48398</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="63">
-        <v>48305</v>
+        <v>48398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,11 +4171,11 @@
         <v>44195</v>
       </c>
       <c r="B5" s="63">
-        <v>61542</v>
+        <v>61828</v>
       </c>
       <c r="C5" s="63"/>
       <c r="D5" s="63">
-        <v>61542</v>
+        <v>61828</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,11 +4207,11 @@
         <v>44198</v>
       </c>
       <c r="B8" s="63">
-        <v>52442</v>
+        <v>52585</v>
       </c>
       <c r="C8" s="63"/>
       <c r="D8" s="63">
-        <v>52442</v>
+        <v>52585</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,11 +4219,11 @@
         <v>44199</v>
       </c>
       <c r="B9" s="63">
-        <v>24148</v>
+        <v>24151</v>
       </c>
       <c r="C9" s="63"/>
       <c r="D9" s="63">
-        <v>24148</v>
+        <v>24151</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,11 +4231,11 @@
         <v>44200</v>
       </c>
       <c r="B10" s="63">
-        <v>48306</v>
+        <v>48349</v>
       </c>
       <c r="C10" s="63"/>
       <c r="D10" s="63">
-        <v>48306</v>
+        <v>48349</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,11 +4243,11 @@
         <v>44201</v>
       </c>
       <c r="B11" s="63">
-        <v>53341</v>
+        <v>53435</v>
       </c>
       <c r="C11" s="63"/>
       <c r="D11" s="63">
-        <v>53341</v>
+        <v>53435</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,11 +4255,11 @@
         <v>44202</v>
       </c>
       <c r="B12" s="63">
-        <v>62995</v>
+        <v>62997</v>
       </c>
       <c r="C12" s="63"/>
       <c r="D12" s="63">
-        <v>62995</v>
+        <v>62997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,11 +4267,11 @@
         <v>44203</v>
       </c>
       <c r="B13" s="63">
-        <v>56201</v>
+        <v>56200</v>
       </c>
       <c r="C13" s="63"/>
       <c r="D13" s="63">
-        <v>56201</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,11 +4279,11 @@
         <v>44204</v>
       </c>
       <c r="B14" s="63">
-        <v>63101</v>
+        <v>63253</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="63">
-        <v>63101</v>
+        <v>63253</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4282,11 +4291,11 @@
         <v>44205</v>
       </c>
       <c r="B15" s="63">
-        <v>61176</v>
+        <v>61179</v>
       </c>
       <c r="C15" s="63"/>
       <c r="D15" s="63">
-        <v>61176</v>
+        <v>61179</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4306,11 +4315,11 @@
         <v>44207</v>
       </c>
       <c r="B17" s="63">
-        <v>66389</v>
+        <v>66494</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63">
-        <v>66389</v>
+        <v>66494</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,11 +4327,11 @@
         <v>44208</v>
       </c>
       <c r="B18" s="63">
-        <v>82874</v>
+        <v>82882</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="63">
-        <v>82874</v>
+        <v>82882</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4330,11 +4339,11 @@
         <v>44209</v>
       </c>
       <c r="B19" s="63">
-        <v>111147</v>
+        <v>111151</v>
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="63">
-        <v>111147</v>
+        <v>111151</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,11 +4351,11 @@
         <v>44210</v>
       </c>
       <c r="B20" s="63">
-        <v>82836</v>
+        <v>82913</v>
       </c>
       <c r="C20" s="63"/>
       <c r="D20" s="63">
-        <v>82836</v>
+        <v>82913</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4354,13 +4363,13 @@
         <v>44211</v>
       </c>
       <c r="B21" s="63">
-        <v>89715</v>
+        <v>90037</v>
       </c>
       <c r="C21" s="63">
         <v>712</v>
       </c>
       <c r="D21" s="63">
-        <v>90427</v>
+        <v>90749</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,13 +4377,13 @@
         <v>44212</v>
       </c>
       <c r="B22" s="63">
-        <v>56317</v>
+        <v>56361</v>
       </c>
       <c r="C22" s="63">
         <v>1036</v>
       </c>
       <c r="D22" s="63">
-        <v>57353</v>
+        <v>57397</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4382,13 +4391,13 @@
         <v>44213</v>
       </c>
       <c r="B23" s="63">
-        <v>30827</v>
+        <v>30834</v>
       </c>
       <c r="C23" s="63">
-        <v>16667</v>
+        <v>16664</v>
       </c>
       <c r="D23" s="63">
-        <v>47494</v>
+        <v>47498</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,13 +4405,13 @@
         <v>44214</v>
       </c>
       <c r="B24" s="63">
-        <v>66053</v>
+        <v>66068</v>
       </c>
       <c r="C24" s="63">
-        <v>15745</v>
+        <v>15750</v>
       </c>
       <c r="D24" s="63">
-        <v>81798</v>
+        <v>81818</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,13 +4419,13 @@
         <v>44215</v>
       </c>
       <c r="B25" s="63">
-        <v>81041</v>
+        <v>81043</v>
       </c>
       <c r="C25" s="63">
-        <v>32452</v>
+        <v>32545</v>
       </c>
       <c r="D25" s="63">
-        <v>113493</v>
+        <v>113588</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,13 +4433,13 @@
         <v>44216</v>
       </c>
       <c r="B26" s="63">
-        <v>80333</v>
+        <v>80672</v>
       </c>
       <c r="C26" s="63">
-        <v>51055</v>
+        <v>51243</v>
       </c>
       <c r="D26" s="63">
-        <v>131388</v>
+        <v>131915</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4438,13 +4447,13 @@
         <v>44217</v>
       </c>
       <c r="B27" s="63">
-        <v>64349</v>
+        <v>64369</v>
       </c>
       <c r="C27" s="63">
-        <v>39674</v>
+        <v>39952</v>
       </c>
       <c r="D27" s="63">
-        <v>104023</v>
+        <v>104321</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,13 +4461,13 @@
         <v>44218</v>
       </c>
       <c r="B28" s="63">
-        <v>67515</v>
+        <v>67554</v>
       </c>
       <c r="C28" s="63">
-        <v>34378</v>
+        <v>34376</v>
       </c>
       <c r="D28" s="63">
-        <v>101893</v>
+        <v>101930</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4475,13 @@
         <v>44219</v>
       </c>
       <c r="B29" s="63">
-        <v>40686</v>
+        <v>40692</v>
       </c>
       <c r="C29" s="63">
-        <v>44677</v>
+        <v>44935</v>
       </c>
       <c r="D29" s="63">
-        <v>85363</v>
+        <v>85627</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4480,13 +4489,13 @@
         <v>44220</v>
       </c>
       <c r="B30" s="63">
-        <v>25596</v>
+        <v>25602</v>
       </c>
       <c r="C30" s="63">
-        <v>23897</v>
+        <v>23898</v>
       </c>
       <c r="D30" s="63">
-        <v>49493</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,13 +4503,13 @@
         <v>44221</v>
       </c>
       <c r="B31" s="63">
-        <v>58179</v>
+        <v>58135</v>
       </c>
       <c r="C31" s="63">
-        <v>37792</v>
+        <v>37844</v>
       </c>
       <c r="D31" s="63">
-        <v>95971</v>
+        <v>95979</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,13 +4517,13 @@
         <v>44222</v>
       </c>
       <c r="B32" s="63">
-        <v>50966</v>
+        <v>50979</v>
       </c>
       <c r="C32" s="63">
-        <v>48453</v>
+        <v>48462</v>
       </c>
       <c r="D32" s="63">
-        <v>99419</v>
+        <v>99441</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4522,13 +4531,13 @@
         <v>44223</v>
       </c>
       <c r="B33" s="63">
-        <v>51577</v>
+        <v>51593</v>
       </c>
       <c r="C33" s="63">
-        <v>59331</v>
+        <v>59421</v>
       </c>
       <c r="D33" s="63">
-        <v>110908</v>
+        <v>111014</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,13 +4545,13 @@
         <v>44224</v>
       </c>
       <c r="B34" s="63">
-        <v>45185</v>
+        <v>45065</v>
       </c>
       <c r="C34" s="63">
-        <v>46146</v>
+        <v>46154</v>
       </c>
       <c r="D34" s="63">
-        <v>91331</v>
+        <v>91219</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4550,13 +4559,13 @@
         <v>44225</v>
       </c>
       <c r="B35" s="63">
-        <v>51179</v>
+        <v>51156</v>
       </c>
       <c r="C35" s="63">
-        <v>57339</v>
+        <v>57392</v>
       </c>
       <c r="D35" s="63">
-        <v>108518</v>
+        <v>108548</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,13 +4573,13 @@
         <v>44226</v>
       </c>
       <c r="B36" s="63">
-        <v>35290</v>
+        <v>35302</v>
       </c>
       <c r="C36" s="63">
-        <v>51306</v>
+        <v>51458</v>
       </c>
       <c r="D36" s="63">
-        <v>86596</v>
+        <v>86760</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,13 +4587,13 @@
         <v>44227</v>
       </c>
       <c r="B37" s="63">
-        <v>26718</v>
+        <v>26731</v>
       </c>
       <c r="C37" s="63">
-        <v>31051</v>
+        <v>31068</v>
       </c>
       <c r="D37" s="63">
-        <v>57769</v>
+        <v>57799</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4592,13 +4601,13 @@
         <v>44228</v>
       </c>
       <c r="B38" s="63">
-        <v>59267</v>
+        <v>59455</v>
       </c>
       <c r="C38" s="63">
-        <v>62136</v>
+        <v>62152</v>
       </c>
       <c r="D38" s="63">
-        <v>121403</v>
+        <v>121607</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4606,13 +4615,13 @@
         <v>44229</v>
       </c>
       <c r="B39" s="63">
-        <v>63543</v>
+        <v>63570</v>
       </c>
       <c r="C39" s="63">
-        <v>66948</v>
+        <v>67003</v>
       </c>
       <c r="D39" s="63">
-        <v>130491</v>
+        <v>130573</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,13 +4629,13 @@
         <v>44230</v>
       </c>
       <c r="B40" s="63">
-        <v>63689</v>
+        <v>63767</v>
       </c>
       <c r="C40" s="63">
-        <v>94243</v>
+        <v>94427</v>
       </c>
       <c r="D40" s="63">
-        <v>157932</v>
+        <v>158194</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,13 +4643,13 @@
         <v>44231</v>
       </c>
       <c r="B41" s="63">
-        <v>61020</v>
+        <v>61077</v>
       </c>
       <c r="C41" s="63">
-        <v>70133</v>
+        <v>70142</v>
       </c>
       <c r="D41" s="63">
-        <v>131153</v>
+        <v>131219</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4648,13 +4657,13 @@
         <v>44232</v>
       </c>
       <c r="B42" s="63">
-        <v>66405</v>
+        <v>66430</v>
       </c>
       <c r="C42" s="63">
-        <v>76620</v>
+        <v>76722</v>
       </c>
       <c r="D42" s="63">
-        <v>143025</v>
+        <v>143152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,13 +4671,13 @@
         <v>44233</v>
       </c>
       <c r="B43" s="63">
-        <v>46444</v>
+        <v>46455</v>
       </c>
       <c r="C43" s="63">
-        <v>52805</v>
+        <v>52820</v>
       </c>
       <c r="D43" s="63">
-        <v>99249</v>
+        <v>99275</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4676,13 +4685,13 @@
         <v>44234</v>
       </c>
       <c r="B44" s="63">
-        <v>28105</v>
+        <v>28117</v>
       </c>
       <c r="C44" s="63">
-        <v>25433</v>
+        <v>25450</v>
       </c>
       <c r="D44" s="63">
-        <v>53538</v>
+        <v>53567</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,13 +4699,13 @@
         <v>44235</v>
       </c>
       <c r="B45" s="63">
-        <v>53360</v>
+        <v>53371</v>
       </c>
       <c r="C45" s="63">
-        <v>56630</v>
+        <v>56644</v>
       </c>
       <c r="D45" s="63">
-        <v>109990</v>
+        <v>110015</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +4713,13 @@
         <v>44236</v>
       </c>
       <c r="B46" s="63">
-        <v>59293</v>
+        <v>59311</v>
       </c>
       <c r="C46" s="63">
-        <v>73230</v>
+        <v>73240</v>
       </c>
       <c r="D46" s="63">
-        <v>132523</v>
+        <v>132551</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4718,13 +4727,13 @@
         <v>44237</v>
       </c>
       <c r="B47" s="63">
-        <v>73715</v>
+        <v>73777</v>
       </c>
       <c r="C47" s="63">
-        <v>75144</v>
+        <v>75642</v>
       </c>
       <c r="D47" s="63">
-        <v>148859</v>
+        <v>149419</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4732,13 +4741,13 @@
         <v>44238</v>
       </c>
       <c r="B48" s="63">
-        <v>73691</v>
+        <v>73716</v>
       </c>
       <c r="C48" s="63">
-        <v>68210</v>
+        <v>68340</v>
       </c>
       <c r="D48" s="63">
-        <v>141901</v>
+        <v>142056</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,13 +4755,13 @@
         <v>44239</v>
       </c>
       <c r="B49" s="63">
-        <v>80221</v>
+        <v>80444</v>
       </c>
       <c r="C49" s="63">
-        <v>75845</v>
+        <v>75908</v>
       </c>
       <c r="D49" s="63">
-        <v>156066</v>
+        <v>156352</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,13 +4769,13 @@
         <v>44240</v>
       </c>
       <c r="B50" s="63">
-        <v>61741</v>
+        <v>61899</v>
       </c>
       <c r="C50" s="63">
-        <v>45983</v>
+        <v>46055</v>
       </c>
       <c r="D50" s="63">
-        <v>107724</v>
+        <v>107954</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4774,13 +4783,13 @@
         <v>44241</v>
       </c>
       <c r="B51" s="63">
-        <v>39774</v>
+        <v>39807</v>
       </c>
       <c r="C51" s="63">
-        <v>25017</v>
+        <v>25038</v>
       </c>
       <c r="D51" s="63">
-        <v>64791</v>
+        <v>64845</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,13 +4797,13 @@
         <v>44242</v>
       </c>
       <c r="B52" s="63">
-        <v>70614</v>
+        <v>70651</v>
       </c>
       <c r="C52" s="63">
-        <v>55815</v>
+        <v>55877</v>
       </c>
       <c r="D52" s="63">
-        <v>126429</v>
+        <v>126528</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,13 +4811,13 @@
         <v>44243</v>
       </c>
       <c r="B53" s="63">
-        <v>81427</v>
+        <v>81461</v>
       </c>
       <c r="C53" s="63">
-        <v>52945</v>
+        <v>53004</v>
       </c>
       <c r="D53" s="63">
-        <v>134372</v>
+        <v>134465</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,13 +4825,13 @@
         <v>44244</v>
       </c>
       <c r="B54" s="63">
-        <v>94329</v>
+        <v>94373</v>
       </c>
       <c r="C54" s="63">
-        <v>55394</v>
+        <v>55446</v>
       </c>
       <c r="D54" s="63">
-        <v>149723</v>
+        <v>149819</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,13 +4839,13 @@
         <v>44245</v>
       </c>
       <c r="B55" s="63">
-        <v>91909</v>
+        <v>91938</v>
       </c>
       <c r="C55" s="63">
-        <v>51673</v>
+        <v>51693</v>
       </c>
       <c r="D55" s="63">
-        <v>143582</v>
+        <v>143631</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,13 +4853,13 @@
         <v>44246</v>
       </c>
       <c r="B56" s="63">
-        <v>98848</v>
+        <v>98912</v>
       </c>
       <c r="C56" s="63">
-        <v>53668</v>
+        <v>53683</v>
       </c>
       <c r="D56" s="63">
-        <v>152516</v>
+        <v>152595</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4858,13 +4867,13 @@
         <v>44247</v>
       </c>
       <c r="B57" s="63">
-        <v>76396</v>
+        <v>76438</v>
       </c>
       <c r="C57" s="63">
-        <v>37726</v>
+        <v>37740</v>
       </c>
       <c r="D57" s="63">
-        <v>114122</v>
+        <v>114178</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4872,13 +4881,13 @@
         <v>44248</v>
       </c>
       <c r="B58" s="63">
-        <v>56874</v>
+        <v>56922</v>
       </c>
       <c r="C58" s="63">
-        <v>28891</v>
+        <v>28899</v>
       </c>
       <c r="D58" s="63">
-        <v>85765</v>
+        <v>85821</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4886,13 +4895,13 @@
         <v>44249</v>
       </c>
       <c r="B59" s="63">
-        <v>99499</v>
+        <v>99625</v>
       </c>
       <c r="C59" s="63">
-        <v>61060</v>
+        <v>61257</v>
       </c>
       <c r="D59" s="63">
-        <v>160559</v>
+        <v>160882</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4900,13 +4909,13 @@
         <v>44250</v>
       </c>
       <c r="B60" s="63">
-        <v>106639</v>
+        <v>106732</v>
       </c>
       <c r="C60" s="63">
-        <v>59883</v>
+        <v>59891</v>
       </c>
       <c r="D60" s="63">
-        <v>166522</v>
+        <v>166623</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4914,13 +4923,13 @@
         <v>44251</v>
       </c>
       <c r="B61" s="63">
-        <v>115185</v>
+        <v>115322</v>
       </c>
       <c r="C61" s="63">
-        <v>58832</v>
+        <v>58900</v>
       </c>
       <c r="D61" s="63">
-        <v>174017</v>
+        <v>174222</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,13 +4937,13 @@
         <v>44252</v>
       </c>
       <c r="B62" s="63">
-        <v>129856</v>
+        <v>130134</v>
       </c>
       <c r="C62" s="63">
-        <v>58352</v>
+        <v>58363</v>
       </c>
       <c r="D62" s="63">
-        <v>188208</v>
+        <v>188497</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,13 +4951,13 @@
         <v>44253</v>
       </c>
       <c r="B63" s="63">
-        <v>143462</v>
+        <v>143732</v>
       </c>
       <c r="C63" s="63">
-        <v>64220</v>
+        <v>64449</v>
       </c>
       <c r="D63" s="63">
-        <v>207682</v>
+        <v>208181</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,13 +4965,13 @@
         <v>44254</v>
       </c>
       <c r="B64" s="63">
-        <v>108287</v>
+        <v>108409</v>
       </c>
       <c r="C64" s="63">
-        <v>39902</v>
+        <v>39948</v>
       </c>
       <c r="D64" s="63">
-        <v>148189</v>
+        <v>148357</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,13 +4979,13 @@
         <v>44255</v>
       </c>
       <c r="B65" s="63">
-        <v>83853</v>
+        <v>83838</v>
       </c>
       <c r="C65" s="63">
         <v>24236</v>
       </c>
       <c r="D65" s="63">
-        <v>108089</v>
+        <v>108074</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4984,13 +4993,13 @@
         <v>44256</v>
       </c>
       <c r="B66" s="63">
-        <v>145009</v>
+        <v>145199</v>
       </c>
       <c r="C66" s="63">
-        <v>49327</v>
+        <v>49341</v>
       </c>
       <c r="D66" s="63">
-        <v>194336</v>
+        <v>194540</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,13 +5007,13 @@
         <v>44257</v>
       </c>
       <c r="B67" s="63">
-        <v>164790</v>
+        <v>165099</v>
       </c>
       <c r="C67" s="63">
-        <v>53614</v>
+        <v>53652</v>
       </c>
       <c r="D67" s="63">
-        <v>218404</v>
+        <v>218751</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,13 +5021,13 @@
         <v>44258</v>
       </c>
       <c r="B68" s="63">
-        <v>173609</v>
+        <v>174066</v>
       </c>
       <c r="C68" s="63">
-        <v>68108</v>
+        <v>68253</v>
       </c>
       <c r="D68" s="63">
-        <v>241717</v>
+        <v>242319</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -5026,13 +5035,13 @@
         <v>44259</v>
       </c>
       <c r="B69" s="63">
-        <v>178713</v>
+        <v>179551</v>
       </c>
       <c r="C69" s="63">
-        <v>62692</v>
+        <v>62690</v>
       </c>
       <c r="D69" s="63">
-        <v>241405</v>
+        <v>242241</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,13 +5049,13 @@
         <v>44260</v>
       </c>
       <c r="B70" s="63">
-        <v>199636</v>
+        <v>200542</v>
       </c>
       <c r="C70" s="63">
-        <v>66527</v>
+        <v>66600</v>
       </c>
       <c r="D70" s="63">
-        <v>266163</v>
+        <v>267142</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,13 +5063,13 @@
         <v>44261</v>
       </c>
       <c r="B71" s="63">
-        <v>152861</v>
+        <v>152923</v>
       </c>
       <c r="C71" s="63">
-        <v>49141</v>
+        <v>49186</v>
       </c>
       <c r="D71" s="63">
-        <v>202002</v>
+        <v>202109</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,13 +5077,13 @@
         <v>44262</v>
       </c>
       <c r="B72" s="63">
-        <v>114567</v>
+        <v>115875</v>
       </c>
       <c r="C72" s="63">
-        <v>34641</v>
+        <v>34649</v>
       </c>
       <c r="D72" s="63">
-        <v>149208</v>
+        <v>150524</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,13 +5091,13 @@
         <v>44263</v>
       </c>
       <c r="B73" s="63">
-        <v>185254</v>
+        <v>185835</v>
       </c>
       <c r="C73" s="63">
-        <v>52508</v>
+        <v>52522</v>
       </c>
       <c r="D73" s="63">
-        <v>237762</v>
+        <v>238357</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,13 +5105,13 @@
         <v>44264</v>
       </c>
       <c r="B74" s="63">
-        <v>195221</v>
+        <v>195409</v>
       </c>
       <c r="C74" s="63">
-        <v>54773</v>
+        <v>54783</v>
       </c>
       <c r="D74" s="63">
-        <v>249994</v>
+        <v>250192</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,13 +5119,13 @@
         <v>44265</v>
       </c>
       <c r="B75" s="63">
-        <v>217156</v>
+        <v>217391</v>
       </c>
       <c r="C75" s="63">
-        <v>65482</v>
+        <v>65483</v>
       </c>
       <c r="D75" s="63">
-        <v>282638</v>
+        <v>282874</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,13 +5133,13 @@
         <v>44266</v>
       </c>
       <c r="B76" s="63">
-        <v>219350</v>
+        <v>219766</v>
       </c>
       <c r="C76" s="63">
-        <v>60900</v>
+        <v>61003</v>
       </c>
       <c r="D76" s="63">
-        <v>280250</v>
+        <v>280769</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -5138,13 +5147,13 @@
         <v>44267</v>
       </c>
       <c r="B77" s="63">
-        <v>249439</v>
+        <v>249704</v>
       </c>
       <c r="C77" s="63">
-        <v>71458</v>
+        <v>71486</v>
       </c>
       <c r="D77" s="63">
-        <v>320897</v>
+        <v>321190</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,13 +5161,13 @@
         <v>44268</v>
       </c>
       <c r="B78" s="63">
-        <v>196306</v>
+        <v>196312</v>
       </c>
       <c r="C78" s="63">
-        <v>49375</v>
+        <v>49384</v>
       </c>
       <c r="D78" s="63">
-        <v>245681</v>
+        <v>245696</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,13 +5175,13 @@
         <v>44269</v>
       </c>
       <c r="B79" s="63">
-        <v>134812</v>
+        <v>134810</v>
       </c>
       <c r="C79" s="63">
-        <v>36026</v>
+        <v>36031</v>
       </c>
       <c r="D79" s="63">
-        <v>170838</v>
+        <v>170841</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,13 +5189,13 @@
         <v>44270</v>
       </c>
       <c r="B80" s="63">
-        <v>188825</v>
+        <v>188862</v>
       </c>
       <c r="C80" s="63">
-        <v>58822</v>
+        <v>58834</v>
       </c>
       <c r="D80" s="63">
-        <v>247647</v>
+        <v>247696</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,13 +5203,13 @@
         <v>44271</v>
       </c>
       <c r="B81" s="63">
-        <v>113341</v>
+        <v>113376</v>
       </c>
       <c r="C81" s="63">
-        <v>67002</v>
+        <v>67012</v>
       </c>
       <c r="D81" s="63">
-        <v>180343</v>
+        <v>180388</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5208,13 +5217,13 @@
         <v>44272</v>
       </c>
       <c r="B82" s="63">
-        <v>124937</v>
+        <v>125230</v>
       </c>
       <c r="C82" s="63">
-        <v>78884</v>
+        <v>78909</v>
       </c>
       <c r="D82" s="63">
-        <v>203821</v>
+        <v>204139</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5222,13 +5231,13 @@
         <v>44273</v>
       </c>
       <c r="B83" s="63">
-        <v>119107</v>
+        <v>119114</v>
       </c>
       <c r="C83" s="63">
-        <v>74783</v>
+        <v>74782</v>
       </c>
       <c r="D83" s="63">
-        <v>193890</v>
+        <v>193896</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5236,13 +5245,13 @@
         <v>44274</v>
       </c>
       <c r="B84" s="63">
-        <v>158860</v>
+        <v>158899</v>
       </c>
       <c r="C84" s="63">
-        <v>82103</v>
+        <v>82138</v>
       </c>
       <c r="D84" s="63">
-        <v>240963</v>
+        <v>241037</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,13 +5259,13 @@
         <v>44275</v>
       </c>
       <c r="B85" s="63">
-        <v>164531</v>
+        <v>164609</v>
       </c>
       <c r="C85" s="63">
-        <v>53842</v>
+        <v>53874</v>
       </c>
       <c r="D85" s="63">
-        <v>218373</v>
+        <v>218483</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,13 +5273,13 @@
         <v>44276</v>
       </c>
       <c r="B86" s="63">
-        <v>126728</v>
+        <v>126731</v>
       </c>
       <c r="C86" s="63">
-        <v>38760</v>
+        <v>38759</v>
       </c>
       <c r="D86" s="63">
-        <v>165488</v>
+        <v>165490</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5278,13 +5287,13 @@
         <v>44277</v>
       </c>
       <c r="B87" s="63">
-        <v>188665</v>
+        <v>188743</v>
       </c>
       <c r="C87" s="63">
-        <v>76219</v>
+        <v>76222</v>
       </c>
       <c r="D87" s="63">
-        <v>264884</v>
+        <v>264965</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -5292,13 +5301,13 @@
         <v>44278</v>
       </c>
       <c r="B88" s="63">
-        <v>213271</v>
+        <v>213307</v>
       </c>
       <c r="C88" s="63">
-        <v>83554</v>
+        <v>83563</v>
       </c>
       <c r="D88" s="63">
-        <v>296825</v>
+        <v>296870</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,13 +5315,13 @@
         <v>44279</v>
       </c>
       <c r="B89" s="63">
-        <v>243072</v>
+        <v>243409</v>
       </c>
       <c r="C89" s="63">
-        <v>87758</v>
+        <v>87801</v>
       </c>
       <c r="D89" s="63">
-        <v>330830</v>
+        <v>331210</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,13 +5329,13 @@
         <v>44280</v>
       </c>
       <c r="B90" s="63">
-        <v>253353</v>
+        <v>254123</v>
       </c>
       <c r="C90" s="63">
         <v>79448</v>
       </c>
       <c r="D90" s="63">
-        <v>332801</v>
+        <v>333571</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,13 +5343,13 @@
         <v>44281</v>
       </c>
       <c r="B91" s="63">
-        <v>280118</v>
+        <v>280501</v>
       </c>
       <c r="C91" s="63">
-        <v>88624</v>
+        <v>88639</v>
       </c>
       <c r="D91" s="63">
-        <v>368742</v>
+        <v>369140</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,13 +5357,13 @@
         <v>44282</v>
       </c>
       <c r="B92" s="63">
-        <v>220592</v>
+        <v>220849</v>
       </c>
       <c r="C92" s="63">
-        <v>63208</v>
+        <v>63286</v>
       </c>
       <c r="D92" s="63">
-        <v>283800</v>
+        <v>284135</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -5362,13 +5371,13 @@
         <v>44283</v>
       </c>
       <c r="B93" s="63">
-        <v>142279</v>
+        <v>143075</v>
       </c>
       <c r="C93" s="63">
-        <v>52752</v>
+        <v>52754</v>
       </c>
       <c r="D93" s="63">
-        <v>195031</v>
+        <v>195829</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,13 +5385,13 @@
         <v>44284</v>
       </c>
       <c r="B94" s="63">
-        <v>217234</v>
+        <v>217747</v>
       </c>
       <c r="C94" s="63">
-        <v>88523</v>
+        <v>88553</v>
       </c>
       <c r="D94" s="63">
-        <v>305757</v>
+        <v>306300</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -5390,13 +5399,13 @@
         <v>44285</v>
       </c>
       <c r="B95" s="63">
-        <v>231049</v>
+        <v>231243</v>
       </c>
       <c r="C95" s="63">
-        <v>92647</v>
+        <v>92704</v>
       </c>
       <c r="D95" s="63">
-        <v>323696</v>
+        <v>323947</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -5404,13 +5413,13 @@
         <v>44286</v>
       </c>
       <c r="B96" s="63">
-        <v>232992</v>
+        <v>233594</v>
       </c>
       <c r="C96" s="63">
-        <v>102394</v>
+        <v>102457</v>
       </c>
       <c r="D96" s="63">
-        <v>335386</v>
+        <v>336051</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -5418,13 +5427,13 @@
         <v>44287</v>
       </c>
       <c r="B97" s="63">
-        <v>226040</v>
+        <v>226488</v>
       </c>
       <c r="C97" s="63">
-        <v>91621</v>
+        <v>91702</v>
       </c>
       <c r="D97" s="63">
-        <v>317661</v>
+        <v>318190</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,13 +5441,13 @@
         <v>44288</v>
       </c>
       <c r="B98" s="63">
-        <v>156864</v>
+        <v>157345</v>
       </c>
       <c r="C98" s="63">
-        <v>71401</v>
+        <v>71555</v>
       </c>
       <c r="D98" s="63">
-        <v>228265</v>
+        <v>228900</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,13 +5455,13 @@
         <v>44289</v>
       </c>
       <c r="B99" s="63">
-        <v>163058</v>
+        <v>163464</v>
       </c>
       <c r="C99" s="63">
-        <v>66044</v>
+        <v>66075</v>
       </c>
       <c r="D99" s="63">
-        <v>229102</v>
+        <v>229539</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5460,13 +5469,13 @@
         <v>44290</v>
       </c>
       <c r="B100" s="63">
-        <v>141353</v>
+        <v>142245</v>
       </c>
       <c r="C100" s="63">
-        <v>53528</v>
+        <v>53539</v>
       </c>
       <c r="D100" s="63">
-        <v>194881</v>
+        <v>195784</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,13 +5483,13 @@
         <v>44291</v>
       </c>
       <c r="B101" s="63">
-        <v>175942</v>
+        <v>176149</v>
       </c>
       <c r="C101" s="63">
-        <v>73329</v>
+        <v>73340</v>
       </c>
       <c r="D101" s="63">
-        <v>249271</v>
+        <v>249489</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5488,13 +5497,13 @@
         <v>44292</v>
       </c>
       <c r="B102" s="63">
-        <v>277210</v>
+        <v>277911</v>
       </c>
       <c r="C102" s="63">
-        <v>98377</v>
+        <v>98897</v>
       </c>
       <c r="D102" s="63">
-        <v>375587</v>
+        <v>376808</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,13 +5511,13 @@
         <v>44293</v>
       </c>
       <c r="B103" s="63">
-        <v>576288</v>
+        <v>576951</v>
       </c>
       <c r="C103" s="63">
-        <v>95249</v>
+        <v>95549</v>
       </c>
       <c r="D103" s="63">
-        <v>671537</v>
+        <v>672500</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5516,13 +5525,13 @@
         <v>44294</v>
       </c>
       <c r="B104" s="63">
-        <v>636315</v>
+        <v>636950</v>
       </c>
       <c r="C104" s="63">
-        <v>88265</v>
+        <v>88501</v>
       </c>
       <c r="D104" s="63">
-        <v>724580</v>
+        <v>725451</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5530,13 +5539,13 @@
         <v>44295</v>
       </c>
       <c r="B105" s="63">
-        <v>529682</v>
+        <v>531368</v>
       </c>
       <c r="C105" s="63">
-        <v>85431</v>
+        <v>86168</v>
       </c>
       <c r="D105" s="63">
-        <v>615113</v>
+        <v>617536</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5544,13 +5553,13 @@
         <v>44296</v>
       </c>
       <c r="B106" s="63">
-        <v>296631</v>
+        <v>298335</v>
       </c>
       <c r="C106" s="63">
-        <v>64391</v>
+        <v>64457</v>
       </c>
       <c r="D106" s="63">
-        <v>361022</v>
+        <v>362792</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5558,13 +5567,13 @@
         <v>44297</v>
       </c>
       <c r="B107" s="63">
-        <v>205724</v>
+        <v>207016</v>
       </c>
       <c r="C107" s="63">
-        <v>49618</v>
+        <v>49773</v>
       </c>
       <c r="D107" s="63">
-        <v>255342</v>
+        <v>256789</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,65 +5581,73 @@
         <v>44298</v>
       </c>
       <c r="B108" s="63">
-        <v>332569</v>
+        <v>335288</v>
       </c>
       <c r="C108" s="63">
-        <v>74382</v>
+        <v>75662</v>
       </c>
       <c r="D108" s="63">
-        <v>406951</v>
+        <v>410950</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="62">
+      <c r="A109" s="66">
         <v>44299</v>
       </c>
       <c r="B109" s="63">
-        <v>464701</v>
+        <v>491602</v>
       </c>
       <c r="C109" s="63">
-        <v>65836</v>
+        <v>72262</v>
       </c>
       <c r="D109" s="63">
-        <v>530537</v>
+        <v>563864</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="64"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
+      <c r="A110" s="67">
+        <v>44300</v>
+      </c>
+      <c r="B110" s="63">
+        <v>662711</v>
+      </c>
+      <c r="C110" s="63">
+        <v>75790</v>
+      </c>
+      <c r="D110" s="63">
+        <v>738501</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="68"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B111" s="66">
-        <v>14058329</v>
-      </c>
-      <c r="C111" s="66">
-        <v>5186135</v>
-      </c>
-      <c r="D111" s="66">
-        <v>19244464</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="64"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="B112" s="63">
+        <v>14773908</v>
+      </c>
+      <c r="C112" s="63">
+        <v>5276028</v>
+      </c>
+      <c r="D112" s="63">
+        <v>20049936</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="64" t="s">
-        <v>76</v>
-      </c>
+      <c r="A113" s="64"/>
       <c r="B113" s="64"/>
       <c r="C113" s="64"/>
       <c r="D113" s="64"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="64"/>
+      <c r="A114" s="64" t="s">
+        <v>75</v>
+      </c>
       <c r="B114" s="64"/>
       <c r="C114" s="64"/>
       <c r="D114" s="64"/>
